--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BFC76B-85D1-4FD5-9DE6-53FE3616633A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55D03F2-381F-482A-A114-6284DB32C153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomly Selected" sheetId="3" r:id="rId1"/>
     <sheet name="Large Cap Selection" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Small Cap Selection" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t>Randomly Selected</t>
   </si>
@@ -210,6 +210,93 @@
   </si>
   <si>
     <t>PROLOGIS INC</t>
+  </si>
+  <si>
+    <t>Criteria Based Selection (Small Cap)</t>
+  </si>
+  <si>
+    <t>SUN</t>
+  </si>
+  <si>
+    <t>SUNOCO LP</t>
+  </si>
+  <si>
+    <t>ATR</t>
+  </si>
+  <si>
+    <t>APTARGROUP INC.</t>
+  </si>
+  <si>
+    <t>HII</t>
+  </si>
+  <si>
+    <t>HUNTINGTON INGALLS INDUSTRIES INC</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>SHARKNINJA INC</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>E L F BEAUTY INC</t>
+  </si>
+  <si>
+    <t>TFX</t>
+  </si>
+  <si>
+    <t>TELEFLEX INC</t>
+  </si>
+  <si>
+    <t>JEF</t>
+  </si>
+  <si>
+    <t>JEFFERIES FINANCIAL GROUP INC</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>UNITY SOFTWARE INC</t>
+  </si>
+  <si>
+    <t>DLB</t>
+  </si>
+  <si>
+    <t>DOLBY LABORATORIES INC</t>
+  </si>
+  <si>
+    <t>NWSA</t>
+  </si>
+  <si>
+    <t>NEWS CORP</t>
+  </si>
+  <si>
+    <t>BEP</t>
+  </si>
+  <si>
+    <t>BROOKFIELD RENEWABLE PARTNERS LP</t>
+  </si>
+  <si>
+    <t>REXR</t>
+  </si>
+  <si>
+    <t>REXFORD INDUSTRIAL REALTY INC</t>
+  </si>
+  <si>
+    <t>CUBE</t>
+  </si>
+  <si>
+    <t>CUBESMART</t>
+  </si>
+  <si>
+    <t>JLL</t>
+  </si>
+  <si>
+    <t>JONES LANG LASALLE INC</t>
   </si>
 </sst>
 </file>
@@ -251,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -265,9 +352,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,14 +652,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A0BDF-9C56-423A-A623-2C6B0F7D9FCE}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -877,15 +978,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -903,25 +1004,25 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
         <v>196913000000</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
         <v>4722000000</v>
       </c>
     </row>
@@ -930,25 +1031,25 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
         <v>32854000000</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
         <v>39150000000</v>
       </c>
     </row>
@@ -957,25 +1058,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
         <v>67060000000</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
         <v>5872000000</v>
       </c>
     </row>
@@ -984,25 +1085,25 @@
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
         <v>574785000000</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
         <v>30476000000</v>
       </c>
     </row>
@@ -1202,12 +1303,423 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>23068000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2143000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3487000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1247000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6">
+        <v>11454000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3509000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4254000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1312000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8">
+        <v>579000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10">
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2978000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>5416000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8">
+        <v>7498000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2036000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2187000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="10">
+        <v>4573000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1300000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="10">
+        <v>576000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1300000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="10">
+        <v>576000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5038000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1959000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="8">
+        <v>798000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="10">
+        <v>159000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1056000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="10">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="8">
+        <v>20761000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="10">
+        <v>5372000000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55D03F2-381F-482A-A114-6284DB32C153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4080517-5614-4CBF-B511-D992CE4EA068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4080517-5614-4CBF-B511-D992CE4EA068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C0FC1C-7E64-4A2A-9552-189AEC4ADFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,15 +991,15 @@
     <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>196913000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>4722000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>32854000000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>39150000000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>67060000000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>5872000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>574785000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1107,192 +1107,192 @@
         <v>30476000000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3">
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
         <v>645737000000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
         <v>32213000000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3">
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
         <v>34445000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
         <v>8958000000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3">
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
         <v>236311000000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3">
         <v>64381000000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="3">
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
         <v>211915000000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3">
         <v>77252000000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="3">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
         <v>134902000000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
         <v>21442000000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="3">
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3">
         <v>28114000000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3">
         <v>6783000000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="3">
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3">
         <v>8428000000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="3">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3">
         <v>1950000000</v>
       </c>
     </row>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C0FC1C-7E64-4A2A-9552-189AEC4ADFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A562E47D-B8E3-4608-BEF8-60661A4BD7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomly Selected" sheetId="3" r:id="rId1"/>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -1305,159 +1305,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C29" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
         <v>23068000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
         <v>2143000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6">
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6">
         <v>3487000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
         <v>1247000000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6">
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6">
         <v>11454000000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
         <v>3509000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
         <v>4254000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="10">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
         <v>1312000000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="8">
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
         <v>579000000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="10">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
         <v>250000000</v>
       </c>
     </row>
@@ -1465,26 +1465,26 @@
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6">
         <v>2978000000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="10">
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6">
         <v>5416000000</v>
       </c>
     </row>
@@ -1492,26 +1492,26 @@
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6">
         <v>7498000000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="10">
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6">
         <v>2036000000</v>
       </c>
     </row>
@@ -1519,50 +1519,50 @@
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6">
         <v>2187000000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="10">
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
         <v>4573000000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6">
         <v>1300000000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="10">
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6">
         <v>576000000</v>
       </c>
     </row>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A562E47D-B8E3-4608-BEF8-60661A4BD7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B3666-EEF2-42A2-BEED-2106DC03830D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -358,18 +358,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C29" sqref="C28:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1442,7 @@
         <v>579000000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1450,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1472,7 +1461,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1469,7 @@
         <v>2978000000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1488,7 +1477,7 @@
         <v>5416000000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1499,7 +1488,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1507,7 +1496,7 @@
         <v>7498000000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1515,7 +1504,7 @@
         <v>2036000000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1526,7 +1515,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1534,7 +1523,7 @@
         <v>2187000000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1542,7 +1531,7 @@
         <v>4573000000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>79</v>
       </c>
@@ -1550,7 +1539,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1558,7 +1547,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1566,158 +1555,143 @@
         <v>576000000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="8">
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="6">
         <v>1300000000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="10">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6">
         <v>576000000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="8">
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6">
         <v>5038000000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="10">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="6">
         <v>1959000000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="8">
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="6">
         <v>798000000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="10">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6">
         <v>159000000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C39" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="8">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="6">
         <v>1056000000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="10">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="6">
         <v>2000000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C42" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="8">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6">
         <v>20761000000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="10">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="6">
         <v>5372000000</v>
       </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B3666-EEF2-42A2-BEED-2106DC03830D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44031408-EAF0-4403-A607-B187A9228CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomly Selected" sheetId="3" r:id="rId1"/>
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A0BDF-9C56-423A-A623-2C6B0F7D9FCE}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44031408-EAF0-4403-A607-B187A9228CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B69F4C1-C01E-4292-ADEC-FFE32E8B2AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -1294,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B69F4C1-C01E-4292-ADEC-FFE32E8B2AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6786EC-9032-42F0-90F5-4301E6F32090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6786EC-9032-42F0-90F5-4301E6F32090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97FE080-7C6D-4681-BCAF-FBECD4EFFDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97FE080-7C6D-4681-BCAF-FBECD4EFFDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC74E51-7377-43E3-B362-A7E31FAD124B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC74E51-7377-43E3-B362-A7E31FAD124B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297D26E3-91B6-4C64-AE00-22DB7DFF0689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297D26E3-91B6-4C64-AE00-22DB7DFF0689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A26202-7394-48E8-A32F-BA2CB9A361BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A26202-7394-48E8-A32F-BA2CB9A361BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420CD649-130F-415B-9DC6-E716B2DD4D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420CD649-130F-415B-9DC6-E716B2DD4D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41F9B68-3ADD-4F9F-9CE5-776E4F6EC519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41F9B68-3ADD-4F9F-9CE5-776E4F6EC519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4F4402-0927-41EF-9EA9-FDBDB3CB548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomly Selected" sheetId="3" r:id="rId1"/>
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A0BDF-9C56-423A-A623-2C6B0F7D9FCE}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -967,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -1294,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4F4402-0927-41EF-9EA9-FDBDB3CB548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7759895B-317D-4CF7-8822-8DDB90128392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7759895B-317D-4CF7-8822-8DDB90128392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D36B4E-0463-4A0E-9856-A7C176CC15C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,28 @@
     <sheet name="Large Cap Selection" sheetId="1" r:id="rId2"/>
     <sheet name="Small Cap Selection" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
   <si>
     <t>Randomly Selected</t>
   </si>
@@ -297,6 +308,9 @@
   </si>
   <si>
     <t>JONES LANG LASALLE INC</t>
+  </si>
+  <si>
+    <t>Revenue to Intangibles Ratio</t>
   </si>
 </sst>
 </file>
@@ -338,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -358,7 +372,12 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,200 +1362,203 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="7">
+        <f>C4/C5</f>
+        <v>10.764349043397107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3487000000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6">
+        <v>3487000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
         <v>1247000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6">
+        <v>90</v>
+      </c>
+      <c r="C10" s="7">
+        <f>C8/C9</f>
+        <v>2.7963111467522053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
         <v>11454000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3509000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4254000000</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3509000000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1312000000</v>
+        <v>90</v>
+      </c>
+      <c r="C14" s="7">
+        <f>C12/C13</f>
+        <v>3.2641778284411513</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4254000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1312000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C16/C17</f>
+        <v>3.2423780487804876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6">
-        <v>579000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="6">
-        <v>250000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2978000000</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="6">
-        <v>5416000000</v>
+        <v>579000000</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>74</v>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6">
+        <v>250000000</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="6">
-        <v>7498000000</v>
+      <c r="B22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="7">
+        <f>C20/C21</f>
+        <v>2.3159999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2036000000</v>
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>76</v>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2978000000</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" s="6">
-        <v>2187000000</v>
+        <v>5416000000</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="6">
-        <v>4573000000</v>
+      <c r="B26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="7">
+        <f>C24/C25</f>
+        <v>0.54985228951255538</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>78</v>
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1544,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="6">
-        <v>1300000000</v>
+        <v>7498000000</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1552,146 +1574,241 @@
         <v>10</v>
       </c>
       <c r="C29" s="6">
-        <v>576000000</v>
+        <v>2036000000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="C30" s="7">
+        <f>C28/C29</f>
+        <v>3.682711198428291</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1300000000</v>
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C32" s="6">
-        <v>576000000</v>
+        <v>2187000000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>82</v>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="6">
+        <v>4573000000</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="6">
-        <v>5038000000</v>
+      <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="7">
+        <f>C32/C33</f>
+        <v>0.47824185436256289</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1959000000</v>
+        <v>79</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>84</v>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1300000000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>7</v>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C37" s="6">
-        <v>798000000</v>
+        <v>576000000</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="6">
-        <v>159000000</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="6">
-        <v>1056000000</v>
+        <v>1300000000</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="6">
-        <v>2000000</v>
+        <v>576000000</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="6">
+        <v>5038000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1959000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="6">
+        <v>798000000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="6">
+        <v>159000000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1056000000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="6">
+    <row r="56" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="6">
         <v>20761000000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="6">
+    <row r="57" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="6">
         <v>5372000000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
+    <row r="58" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D36B4E-0463-4A0E-9856-A7C176CC15C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FACD1E-7B49-4799-A6E8-3479821901A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>Randomly Selected</t>
   </si>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>Revenue to Intangibles Ratio</t>
+  </si>
+  <si>
+    <t>Sample Averages</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Revenue to Intangibles Ratio, Aggregate</t>
   </si>
 </sst>
 </file>
@@ -352,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -378,6 +390,10 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1311,30 +1327,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A59" activeCellId="13" sqref="A7:XFD7 A11:XFD11 A15:XFD15 A19:XFD19 A23:XFD23 A27:XFD27 A31:XFD31 A35:XFD35 A39:XFD39 A43:XFD43 A47:XFD47 A51:XFD51 A55:XFD55 A59:XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1345,7 +1362,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1370,7 @@
         <v>23068000000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1378,7 @@
         <v>2143000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>90</v>
       </c>
@@ -1370,447 +1387,567 @@
         <v>10.764349043397107</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
         <v>3487000000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
         <v>1247000000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="7">
-        <f>C8/C9</f>
+      <c r="C11" s="7">
+        <f>C9/C10</f>
         <v>2.7963111467522053</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6">
         <v>11454000000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6">
         <v>3509000000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="7">
-        <f>C12/C13</f>
+      <c r="C16" s="7">
+        <f>C14/C15</f>
         <v>3.2641778284411513</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
         <v>4254000000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
         <v>1312000000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="8">
-        <f>C16/C17</f>
+      <c r="C21" s="8">
+        <f>C19/C20</f>
         <v>3.2423780487804876</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6">
         <v>579000000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6">
         <v>250000000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="7">
-        <f>C20/C21</f>
-        <v>2.3159999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2978000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="6">
-        <v>5416000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="7">
         <f>C24/C25</f>
+        <v>2.3159999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2978000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6">
+        <v>5416000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="7">
+        <f>C29/C30</f>
         <v>0.54985228951255538</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="6">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6">
         <v>7498000000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="6">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="6">
         <v>2036000000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="7">
-        <f>C28/C29</f>
+      <c r="C36" s="7">
+        <f>C34/C35</f>
         <v>3.682711198428291</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="6">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6">
         <v>2187000000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="6">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="6">
         <v>4573000000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="7">
-        <f>C32/C33</f>
+      <c r="C41" s="7">
+        <f>C39/C40</f>
         <v>0.47824185436256289</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="6">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="6">
         <v>1300000000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="6">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="6">
         <v>576000000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1300000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="6">
-        <v>576000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="6">
-        <v>5038000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="6">
-        <v>1959000000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="C46" s="7">
+        <f>C44/C45</f>
+        <v>2.2569444444444446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1300000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="6">
+        <v>576000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="7">
+        <f>C49/C50</f>
+        <v>2.2569444444444446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6">
+        <v>5038000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1959000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="7">
+        <f>C54/C55</f>
+        <v>2.5717202654415519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="6">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="6">
         <v>798000000</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="6">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="6">
         <v>159000000</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="C61" s="7">
+        <f>C59/C60</f>
+        <v>5.0188679245283021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="6">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="6">
         <v>1056000000</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="6">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="6">
         <v>2000000</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="C66" s="7">
+        <f>C64/C65</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="6">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="6">
         <v>20761000000</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="6">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="6">
         <v>5372000000</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="C71" s="10">
+        <f>C69/C70</f>
+        <v>3.864668652271035</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="10"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="12">
+        <f>AVERAGE(C69,C64,C59,C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
+        <v>6125571428.5714283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="12">
+        <f>AVERAGE(C70,C65,C60,C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
+        <v>2080714285.7142856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="12">
+        <f>AVERAGE(C71,C66,C61,C56,C51,C46,C41,C36,C31,C26,C21,C16,C11,C6)</f>
+        <v>40.790226224343144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="10">
+        <f>C75/C76</f>
+        <v>2.9439752832131822</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FACD1E-7B49-4799-A6E8-3479821901A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136A6A0E-135B-45EB-B249-4230ED594598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomly Selected" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
   <si>
     <t>Randomly Selected</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Revenue to Intangibles Ratio, Aggregate</t>
+  </si>
+  <si>
+    <t>Distance from Average</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -1327,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A59" activeCellId="13" sqref="A7:XFD7 A11:XFD11 A15:XFD15 A19:XFD19 A23:XFD23 A27:XFD27 A31:XFD31 A35:XFD35 A39:XFD39 A43:XFD43 A47:XFD47 A51:XFD51 A55:XFD55 A59:XFD59"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1388,8 +1391,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="7">
+        <f>C6-C78</f>
+        <v>7.8203737601839247</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1428,8 +1436,13 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="7">
+        <f>C11-C78</f>
+        <v>-0.14766413646097698</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1468,8 +1481,13 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="7">
+        <f>C16-C78</f>
+        <v>0.32020254522796909</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1508,8 +1526,13 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="8">
+        <f>C21-C78</f>
+        <v>0.29840276556730538</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1548,8 +1571,13 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="7">
+        <f>C26-C78</f>
+        <v>-0.62797528321318241</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1588,8 +1616,13 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="7">
+        <f>C31-C78</f>
+        <v>-2.394122993700627</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1628,8 +1661,13 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="7">
+        <f>C36-C78</f>
+        <v>0.73873591521510873</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1668,8 +1706,13 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="7">
+        <f>C41-C78</f>
+        <v>-2.4657334288506192</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -1705,8 +1748,13 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="7">
+        <f>C46-C78</f>
+        <v>-0.68703083876873761</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1745,8 +1793,13 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="7">
+        <f>C51-C78</f>
+        <v>-0.68703083876873761</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1785,8 +1838,13 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="7"/>
+      <c r="B57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="7">
+        <f>C56-C78</f>
+        <v>-0.37225501777163039</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -1825,8 +1883,13 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="7"/>
+      <c r="B62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="7">
+        <f>C61-C78</f>
+        <v>2.0748926413151199</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -1862,8 +1925,13 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="7">
+        <f>C66-C78</f>
+        <v>525.05602471678685</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
@@ -1899,8 +1967,13 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="10">
+        <f>C71-C78</f>
+        <v>0.92069336905785271</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
@@ -1937,11 +2010,11 @@
         <v>40.790226224343144</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C78" s="10">
         <f>C75/C76</f>
         <v>2.9439752832131822</v>
       </c>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136A6A0E-135B-45EB-B249-4230ED594598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B7453-7E79-4987-B124-929426D1B09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="96">
   <si>
     <t>Randomly Selected</t>
   </si>
@@ -332,7 +332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +345,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -393,10 +400,23 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,30 +1023,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1037,7 +1062,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1071,8 @@
         <v>196913000000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1053,275 +1080,522 @@
         <v>4722000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="14">
+        <f>C4/C5</f>
+        <v>41.701185938161792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
         <v>32854000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
         <v>39150000000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="14">
+        <f>C9/C10</f>
+        <v>0.83918263090676881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
         <v>67060000000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
         <v>5872000000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="14">
+        <f>C14/C15</f>
+        <v>11.420299727520437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
         <v>574785000000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
         <v>30476000000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="14">
+        <f>C19/C20</f>
+        <v>18.860250689066806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
         <v>645737000000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
         <v>32213000000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C24/C25</f>
+        <v>20.04585105392233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
         <v>34445000000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3">
         <v>8958000000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="14">
+        <f>C29/C30</f>
+        <v>3.8451663317704843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3">
         <v>236311000000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3">
         <v>64381000000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="14">
+        <f>C34/C35</f>
+        <v>3.6705083798014941</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3">
         <v>211915000000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3">
         <v>77252000000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="14">
+        <f>C39/C40</f>
+        <v>2.7431652254957801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
         <v>134902000000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3">
         <v>21442000000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="14">
+        <f>C44/C45</f>
+        <v>6.2914840033578958</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3">
         <v>28114000000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3">
         <v>6783000000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="14">
+        <f>C49/C50</f>
+        <v>4.1447736989532658</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3">
         <v>8428000000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3">
         <v>1950000000</v>
       </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="14">
+        <f>C54/C55</f>
+        <v>4.322051282051282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="17"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="17"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="17"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1332,18 +1606,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="33.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,7 +2235,7 @@
       <c r="B71" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="11">
         <f>C69/C70</f>
         <v>3.864668652271035</v>
       </c>
@@ -1970,51 +2244,51 @@
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="11">
         <f>C71-C78</f>
         <v>0.92069336905785271</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="13">
         <f>AVERAGE(C69,C64,C59,C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
         <v>6125571428.5714283</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="13">
         <f>AVERAGE(C70,C65,C60,C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
         <v>2080714285.7142856</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="12">
+      <c r="B77" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="13">
         <f>AVERAGE(C71,C66,C61,C56,C51,C46,C41,C36,C31,C26,C21,C16,C11,C6)</f>
         <v>40.790226224343144</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="11">
         <f>C75/C76</f>
         <v>2.9439752832131822</v>
       </c>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B7453-7E79-4987-B124-929426D1B09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED27FCB-8058-465F-BE7B-EE36C8475332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -416,6 +416,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1099,10 @@
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="14">
+        <f>C6-C63</f>
+        <v>34.295076094676652</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1141,7 +1148,10 @@
       <c r="B12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="14">
+        <f>C11-C63</f>
+        <v>-6.5669272125783733</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1187,7 +1197,10 @@
       <c r="B17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="14">
+        <f>C16-C63</f>
+        <v>4.0141898840352948</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1233,7 +1246,10 @@
       <c r="B22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="14">
+        <f>C21-C63</f>
+        <v>11.454140845581664</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1279,7 +1295,10 @@
       <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="14">
+        <f>C26-C63</f>
+        <v>12.639741210437188</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1325,7 +1344,10 @@
       <c r="B32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="14">
+        <f>C31-C63</f>
+        <v>-3.5609435117146577</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1371,7 +1393,10 @@
       <c r="B37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="14">
+        <f>C36-C63</f>
+        <v>-3.7356014636836479</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1417,7 +1442,10 @@
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="14">
+        <f>C41-C63</f>
+        <v>-4.6629446179893623</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1463,7 +1491,10 @@
       <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="14">
+        <f>C46-C63</f>
+        <v>-1.1146258401272462</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1509,7 +1540,10 @@
       <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="14">
+        <f>C51-C63</f>
+        <v>-3.2613361445318763</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1555,7 +1589,10 @@
       <c r="B57" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="17"/>
+      <c r="C57" s="19">
+        <f>C56-C63</f>
+        <v>-3.08405856143386</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
@@ -1574,28 +1611,40 @@
       <c r="B60" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="13"/>
+      <c r="C60" s="13">
+        <f>AVERAGE(C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
+        <v>197405818181.81818</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <f>AVERAGE(C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
+        <v>26654454545.454544</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="13"/>
+      <c r="C62" s="18">
+        <f>AVERAGE(C56,C51,C46,C41,C36,C31,C26,C21,C16,C11,C6)</f>
+        <v>10.716719905546212</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="11"/>
+      <c r="C63" s="11">
+        <f>C60/C61</f>
+        <v>7.406109843485142</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1607,7 +1656,7 @@
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED27FCB-8058-465F-BE7B-EE36C8475332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F317C-4C0A-49C5-AC1B-7BEFEB1F943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomly Selected" sheetId="3" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1655,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F317C-4C0A-49C5-AC1B-7BEFEB1F943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED288A1-5FAC-478A-8019-13C93C686F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomly Selected" sheetId="3" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1655,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED288A1-5FAC-478A-8019-13C93C686F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B21FC2-8162-4164-8EC6-5788C13C88B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomly Selected" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="96">
   <si>
     <t>Randomly Selected</t>
   </si>
@@ -701,40 +701,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A0BDF-9C56-423A-A623-2C6B0F7D9FCE}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>395</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,7 +744,7 @@
         <v>7802000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,258 +752,222 @@
         <v>1154000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
         <v>34124000000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C10" s="3">
         <v>11846000000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>443</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
         <v>8529000000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
         <v>9646000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>156</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
         <v>12600000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
         <v>1196000000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>49</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
         <v>61996000000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
         <v>132683000000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>40</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
         <v>40109000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3">
         <v>32494000000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>463</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3">
-        <v>17596000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1620000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3">
-        <v>85159000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3">
-        <v>70733000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>368</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4030000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3">
-        <v>4170000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>190</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3">
-        <v>66905000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="3">
-        <v>11793000000</v>
-      </c>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>300</v>
+        <v>463</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1009,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="3">
-        <v>30604000000</v>
+        <v>17596000000</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1017,8 +983,213 @@
         <v>10</v>
       </c>
       <c r="C35" s="3">
+        <v>1620000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>18</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3">
+        <v>85159000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3">
+        <v>70733000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>368</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4030000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4170000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>190</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3">
+        <v>66905000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3">
+        <v>11793000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>300</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3">
+        <v>30604000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3">
         <v>3064000000</v>
       </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="18"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1029,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B57" sqref="B56:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B21FC2-8162-4164-8EC6-5788C13C88B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D31C1-4EA1-4BA8-8D85-BE5C4BF9F119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A0BDF-9C56-423A-A623-2C6B0F7D9FCE}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +756,10 @@
       <c r="B6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="8">
+        <f>C4/C5</f>
+        <v>6.760831889081456</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -795,7 +798,10 @@
       <c r="B11" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="8">
+        <f>C9/C10</f>
+        <v>2.8806348134391357</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -834,7 +840,10 @@
       <c r="B16" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="8">
+        <f>C14/C15</f>
+        <v>0.88420070495542191</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -873,7 +882,10 @@
       <c r="B21" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="8">
+        <f>C19/C20</f>
+        <v>10.535117056856187</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -912,7 +924,10 @@
       <c r="B26" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="8">
+        <f>C24/C25</f>
+        <v>0.46724900703179761</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
@@ -951,7 +966,10 @@
       <c r="B31" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="8">
+        <f>C29/C30</f>
+        <v>1.2343509570997722</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -990,7 +1008,10 @@
       <c r="B36" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="8">
+        <f>C34/C35</f>
+        <v>10.861728395061728</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
@@ -1030,7 +1051,10 @@
       <c r="B41" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="8">
+        <f>C39/C40</f>
+        <v>1.2039500657401778</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
@@ -1070,7 +1094,10 @@
       <c r="B46" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="8">
+        <f>C44/C45</f>
+        <v>0.96642685851318944</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
@@ -1110,7 +1137,10 @@
       <c r="B51" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="8">
+        <f>C49/C50</f>
+        <v>5.6732807597727462</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
@@ -1149,6 +1179,10 @@
       <c r="B56" s="17" t="s">
         <v>90</v>
       </c>
+      <c r="C56" s="8">
+        <f>C54/C55</f>
+        <v>9.9882506527415149</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
@@ -1168,28 +1202,40 @@
       <c r="B60" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="13"/>
+      <c r="C60" s="13">
+        <f>AVERAGE(C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
+        <v>33586727272.727272</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <f t="shared" ref="C61:C62" si="0">AVERAGE(C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
+        <v>25490818181.81818</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="18"/>
+      <c r="C62" s="18">
+        <f t="shared" si="0"/>
+        <v>4.6778201054811932</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="11"/>
+      <c r="C63" s="11">
+        <f>C60/C61</f>
+        <v>1.3176009900177961</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1201,7 +1247,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B56:B57"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1873,7 @@
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D31C1-4EA1-4BA8-8D85-BE5C4BF9F119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39401AD7-E6B8-4C66-A376-4483D68ABBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -384,9 +384,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -419,6 +416,12 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -703,29 +706,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A0BDF-9C56-423A-A623-2C6B0F7D9FCE}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>395</v>
       </c>
@@ -736,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,7 +747,7 @@
         <v>7802000000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,22 +755,25 @@
         <v>1154000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="8">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="7">
         <f>C4/C5</f>
         <v>6.760831889081456</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <f>C6-C63</f>
+        <v>5.4432308990636598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -778,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -786,7 +792,7 @@
         <v>34124000000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,22 +800,25 @@
         <v>11846000000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="8">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="7">
         <f>C9/C10</f>
         <v>2.8806348134391357</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <f>C11-C63</f>
+        <v>1.5630338234213397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>443</v>
       </c>
@@ -820,7 +829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,7 +837,7 @@
         <v>8529000000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -836,22 +845,25 @@
         <v>9646000000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="8">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="7">
         <f>C14/C15</f>
         <v>0.88420070495542191</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
+        <f>C16-C63</f>
+        <v>-0.43340028506237416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>156</v>
       </c>
@@ -862,7 +874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,7 +882,7 @@
         <v>12600000000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -878,22 +890,25 @@
         <v>1196000000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="8">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="7">
         <f>C19/C20</f>
         <v>10.535117056856187</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="7">
+        <f>C21-C63</f>
+        <v>9.2175160668383906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>49</v>
       </c>
@@ -904,7 +919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,7 +927,7 @@
         <v>61996000000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,22 +935,22 @@
         <v>132683000000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="8">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="7">
         <f>C24/C25</f>
         <v>0.46724900703179761</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40</v>
       </c>
@@ -946,7 +961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
@@ -954,7 +969,7 @@
         <v>40109000000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,22 +977,25 @@
         <v>32494000000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="8">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="7">
         <f>C29/C30</f>
         <v>1.2343509570997722</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="7">
+        <f>C31-C63</f>
+        <v>-8.3250032918023908E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>463</v>
       </c>
@@ -988,7 +1006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>17596000000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,22 +1022,25 @@
         <v>1620000000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="8">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="7">
         <f>C34/C35</f>
         <v>10.861728395061728</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="7">
+        <f>C36-C63</f>
+        <v>9.5441274050439322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>18</v>
       </c>
@@ -1031,7 +1052,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1060,7 @@
         <v>85159000000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1047,22 +1068,25 @@
         <v>70733000000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="8">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="7">
         <f>C39/C40</f>
         <v>1.2039500657401778</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="7">
+        <f>C41-C63</f>
+        <v>-0.11365092427761825</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>368</v>
       </c>
@@ -1074,7 +1098,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1106,7 @@
         <v>4030000000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
@@ -1090,22 +1114,25 @@
         <v>4170000000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="8">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="7">
         <f>C44/C45</f>
         <v>0.96642685851318944</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="7">
+        <f>C46-C63</f>
+        <v>-0.35117413150460663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>190</v>
       </c>
@@ -1117,7 +1144,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1152,7 @@
         <v>66905000000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,22 +1160,25 @@
         <v>11793000000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="8">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="7">
         <f>C49/C50</f>
         <v>5.6732807597727462</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C52" s="7">
+        <f>C51-C63</f>
+        <v>4.3556797697549499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>300</v>
       </c>
@@ -1159,7 +1189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1197,7 @@
         <v>30604000000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,64 +1205,68 @@
         <v>3064000000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="8">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="7">
         <f>C54/C55</f>
         <v>9.9882506527415149</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C57" s="20">
+        <f>C56-C63</f>
+        <v>8.6706496627237186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="12">
         <f>AVERAGE(C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
         <v>33586727272.727272</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="12">
         <f t="shared" ref="C61:C62" si="0">AVERAGE(C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
         <v>25490818181.81818</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="18">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="17">
         <f t="shared" si="0"/>
         <v>4.6778201054811932</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="10">
         <f>C60/C61</f>
         <v>1.3176009900177961</v>
       </c>
@@ -1252,25 +1286,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="34" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1284,7 +1318,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1327,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1302,21 +1336,21 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="A6" s="9"/>
+      <c r="B6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="13">
         <f>C4/C5</f>
         <v>41.701185938161792</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <f>C6-C63</f>
         <v>34.295076094676652</v>
       </c>
@@ -1333,7 +1367,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1376,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1351,21 +1385,21 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="A11" s="9"/>
+      <c r="B11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="13">
         <f>C9/C10</f>
         <v>0.83918263090676881</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f>C11-C63</f>
         <v>-6.5669272125783733</v>
       </c>
@@ -1391,7 +1425,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1400,21 +1434,21 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="A16" s="9"/>
+      <c r="B16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="13">
         <f>C14/C15</f>
         <v>11.420299727520437</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <f>C16-C63</f>
         <v>4.0141898840352948</v>
       </c>
@@ -1431,7 +1465,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1474,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1449,21 +1483,21 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="A21" s="9"/>
+      <c r="B21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="13">
         <f>C19/C20</f>
         <v>18.860250689066806</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <f>C21-C63</f>
         <v>11.454140845581664</v>
       </c>
@@ -1480,7 +1514,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1523,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1498,21 +1532,21 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="A26" s="9"/>
+      <c r="B26" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="13">
         <f>C24/C25</f>
         <v>20.04585105392233</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <f>C26-C63</f>
         <v>12.639741210437188</v>
       </c>
@@ -1538,7 +1572,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
@@ -1547,21 +1581,21 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="A31" s="9"/>
+      <c r="B31" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="13">
         <f>C29/C30</f>
         <v>3.8451663317704843</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <f>C31-C63</f>
         <v>-3.5609435117146577</v>
       </c>
@@ -1578,7 +1612,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1621,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1596,21 +1630,21 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="14">
+      <c r="A36" s="9"/>
+      <c r="B36" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="13">
         <f>C34/C35</f>
         <v>3.6705083798014941</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <f>C36-C63</f>
         <v>-3.7356014636836479</v>
       </c>
@@ -1627,7 +1661,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1636,7 +1670,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
@@ -1645,21 +1679,21 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="14">
+      <c r="A41" s="9"/>
+      <c r="B41" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="13">
         <f>C39/C40</f>
         <v>2.7431652254957801</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="13">
         <f>C41-C63</f>
         <v>-4.6629446179893623</v>
       </c>
@@ -1676,7 +1710,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1685,7 +1719,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1694,21 +1728,21 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="14">
+      <c r="A46" s="9"/>
+      <c r="B46" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="13">
         <f>C44/C45</f>
         <v>6.2914840033578958</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <f>C46-C63</f>
         <v>-1.1146258401272462</v>
       </c>
@@ -1725,7 +1759,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1768,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="2" t="s">
         <v>10</v>
       </c>
@@ -1743,21 +1777,21 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="14">
+      <c r="A51" s="9"/>
+      <c r="B51" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="13">
         <f>C49/C50</f>
         <v>4.1447736989532658</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <f>C51-C63</f>
         <v>-3.2613361445318763</v>
       </c>
@@ -1774,7 +1808,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
@@ -1783,7 +1817,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1792,73 +1826,73 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="14">
+      <c r="A56" s="9"/>
+      <c r="B56" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="13">
         <f>C54/C55</f>
         <v>4.322051282051282</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="18">
         <f>C56-C63</f>
         <v>-3.08405856143386</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="17"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="17"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="12">
         <f>AVERAGE(C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
         <v>197405818181.81818</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="12">
         <f>AVERAGE(C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
         <v>26654454545.454544</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="18">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="17">
         <f>AVERAGE(C56,C51,C46,C41,C36,C31,C26,C21,C16,C11,C6)</f>
         <v>10.716719905546212</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="10">
         <f>C60/C61</f>
         <v>7.406109843485142</v>
       </c>
@@ -1878,12 +1912,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="33.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,7 +1943,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>23068000000</v>
       </c>
     </row>
@@ -1917,7 +1951,7 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2143000000</v>
       </c>
     </row>
@@ -1925,7 +1959,7 @@
       <c r="B6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>C4/C5</f>
         <v>10.764349043397107</v>
       </c>
@@ -1934,7 +1968,7 @@
       <c r="B7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f>C6-C78</f>
         <v>7.8203737601839247</v>
       </c>
@@ -1954,7 +1988,7 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>3487000000</v>
       </c>
     </row>
@@ -1962,7 +1996,7 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1247000000</v>
       </c>
     </row>
@@ -1970,7 +2004,7 @@
       <c r="B11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f>C9/C10</f>
         <v>2.7963111467522053</v>
       </c>
@@ -1979,7 +2013,7 @@
       <c r="B12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f>C11-C78</f>
         <v>-0.14766413646097698</v>
       </c>
@@ -1999,7 +2033,7 @@
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>11454000000</v>
       </c>
     </row>
@@ -2007,7 +2041,7 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>3509000000</v>
       </c>
     </row>
@@ -2015,7 +2049,7 @@
       <c r="B16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>C14/C15</f>
         <v>3.2641778284411513</v>
       </c>
@@ -2024,7 +2058,7 @@
       <c r="B17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>C16-C78</f>
         <v>0.32020254522796909</v>
       </c>
@@ -2060,7 +2094,7 @@
       <c r="B21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <f>C19/C20</f>
         <v>3.2423780487804876</v>
       </c>
@@ -2069,7 +2103,7 @@
       <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <f>C21-C78</f>
         <v>0.29840276556730538</v>
       </c>
@@ -2089,7 +2123,7 @@
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>579000000</v>
       </c>
     </row>
@@ -2097,7 +2131,7 @@
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>250000000</v>
       </c>
     </row>
@@ -2105,7 +2139,7 @@
       <c r="B26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <f>C24/C25</f>
         <v>2.3159999999999998</v>
       </c>
@@ -2114,7 +2148,7 @@
       <c r="B27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <f>C26-C78</f>
         <v>-0.62797528321318241</v>
       </c>
@@ -2134,7 +2168,7 @@
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>2978000000</v>
       </c>
     </row>
@@ -2142,7 +2176,7 @@
       <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>5416000000</v>
       </c>
     </row>
@@ -2150,7 +2184,7 @@
       <c r="B31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <f>C29/C30</f>
         <v>0.54985228951255538</v>
       </c>
@@ -2159,7 +2193,7 @@
       <c r="B32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <f>C31-C78</f>
         <v>-2.394122993700627</v>
       </c>
@@ -2179,7 +2213,7 @@
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>7498000000</v>
       </c>
     </row>
@@ -2187,7 +2221,7 @@
       <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>2036000000</v>
       </c>
     </row>
@@ -2195,7 +2229,7 @@
       <c r="B36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <f>C34/C35</f>
         <v>3.682711198428291</v>
       </c>
@@ -2204,7 +2238,7 @@
       <c r="B37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <f>C36-C78</f>
         <v>0.73873591521510873</v>
       </c>
@@ -2224,7 +2258,7 @@
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>2187000000</v>
       </c>
     </row>
@@ -2232,7 +2266,7 @@
       <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>4573000000</v>
       </c>
     </row>
@@ -2240,7 +2274,7 @@
       <c r="B41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <f>C39/C40</f>
         <v>0.47824185436256289</v>
       </c>
@@ -2249,7 +2283,7 @@
       <c r="B42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <f>C41-C78</f>
         <v>-2.4657334288506192</v>
       </c>
@@ -2266,7 +2300,7 @@
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>1300000000</v>
       </c>
     </row>
@@ -2274,7 +2308,7 @@
       <c r="B45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>576000000</v>
       </c>
     </row>
@@ -2282,7 +2316,7 @@
       <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <f>C44/C45</f>
         <v>2.2569444444444446</v>
       </c>
@@ -2291,7 +2325,7 @@
       <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <f>C46-C78</f>
         <v>-0.68703083876873761</v>
       </c>
@@ -2311,7 +2345,7 @@
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>1300000000</v>
       </c>
     </row>
@@ -2319,7 +2353,7 @@
       <c r="B50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>576000000</v>
       </c>
     </row>
@@ -2327,7 +2361,7 @@
       <c r="B51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <f>C49/C50</f>
         <v>2.2569444444444446</v>
       </c>
@@ -2336,7 +2370,7 @@
       <c r="B52" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <f>C51-C78</f>
         <v>-0.68703083876873761</v>
       </c>
@@ -2356,7 +2390,7 @@
       <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>5038000000</v>
       </c>
     </row>
@@ -2364,7 +2398,7 @@
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>1959000000</v>
       </c>
     </row>
@@ -2372,7 +2406,7 @@
       <c r="B56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <f>C54/C55</f>
         <v>2.5717202654415519</v>
       </c>
@@ -2381,7 +2415,7 @@
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <f>C56-C78</f>
         <v>-0.37225501777163039</v>
       </c>
@@ -2401,7 +2435,7 @@
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>798000000</v>
       </c>
     </row>
@@ -2409,7 +2443,7 @@
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>159000000</v>
       </c>
     </row>
@@ -2417,7 +2451,7 @@
       <c r="B61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <f>C59/C60</f>
         <v>5.0188679245283021</v>
       </c>
@@ -2426,7 +2460,7 @@
       <c r="B62" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <f>C61-C78</f>
         <v>2.0748926413151199</v>
       </c>
@@ -2443,7 +2477,7 @@
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>1056000000</v>
       </c>
     </row>
@@ -2451,7 +2485,7 @@
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>2000000</v>
       </c>
     </row>
@@ -2459,7 +2493,7 @@
       <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <f>C64/C65</f>
         <v>528</v>
       </c>
@@ -2468,7 +2502,7 @@
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <f>C66-C78</f>
         <v>525.05602471678685</v>
       </c>
@@ -2485,7 +2519,7 @@
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>20761000000</v>
       </c>
     </row>
@@ -2493,7 +2527,7 @@
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>5372000000</v>
       </c>
     </row>
@@ -2501,7 +2535,7 @@
       <c r="B71" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="10">
         <f>C69/C70</f>
         <v>3.864668652271035</v>
       </c>
@@ -2510,51 +2544,51 @@
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="10">
         <f>C71-C78</f>
         <v>0.92069336905785271</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="12">
         <f>AVERAGE(C69,C64,C59,C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
         <v>6125571428.5714283</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="12">
         <f>AVERAGE(C70,C65,C60,C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
         <v>2080714285.7142856</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="13">
+      <c r="B77" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="12">
         <f>AVERAGE(C71,C66,C61,C56,C51,C46,C41,C36,C31,C26,C21,C16,C11,C6)</f>
         <v>40.790226224343144</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="10">
         <f>C75/C76</f>
         <v>2.9439752832131822</v>
       </c>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39401AD7-E6B8-4C66-A376-4483D68ABBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F340E78A-DCB2-4B5D-A916-43A62B268F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A0BDF-9C56-423A-A623-2C6B0F7D9FCE}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -948,7 +948,10 @@
       <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="7">
+        <f>C26-C63</f>
+        <v>-0.85035198298599846</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1280,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F340E78A-DCB2-4B5D-A916-43A62B268F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD7AA2-8A97-4EDB-8849-DC1891F91A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -400,7 +400,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -714,7 +713,7 @@
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
@@ -756,7 +755,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="7">
@@ -801,7 +800,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="7">
@@ -846,7 +845,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C16" s="7">
@@ -891,7 +890,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="7">
@@ -936,7 +935,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="7">
@@ -981,7 +980,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C31" s="7">
@@ -1026,7 +1025,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="7">
@@ -1072,7 +1071,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="7">
@@ -1118,7 +1117,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C46" s="7">
@@ -1164,7 +1163,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C51" s="7">
@@ -1209,7 +1208,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="7">
@@ -1221,7 +1220,7 @@
       <c r="B57" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="19">
         <f>C56-C63</f>
         <v>8.6706496627237186</v>
       </c>
@@ -1239,7 +1238,7 @@
       <c r="B60" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <f>AVERAGE(C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
         <v>33586727272.727272</v>
       </c>
@@ -1249,7 +1248,7 @@
       <c r="B61" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="11">
         <f t="shared" ref="C61:C62" si="0">AVERAGE(C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
         <v>25490818181.81818</v>
       </c>
@@ -1259,7 +1258,7 @@
       <c r="B62" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <f t="shared" si="0"/>
         <v>4.6778201054811932</v>
       </c>
@@ -1290,9 +1289,9 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="8"/>
   </cols>
@@ -1301,13 +1300,13 @@
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1340,10 +1339,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="12">
         <f>C4/C5</f>
         <v>41.701185938161792</v>
       </c>
@@ -1353,7 +1352,7 @@
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <f>C6-C63</f>
         <v>34.295076094676652</v>
       </c>
@@ -1389,10 +1388,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="12">
         <f>C9/C10</f>
         <v>0.83918263090676881</v>
       </c>
@@ -1402,7 +1401,7 @@
       <c r="B12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <f>C11-C63</f>
         <v>-6.5669272125783733</v>
       </c>
@@ -1438,10 +1437,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="12">
         <f>C14/C15</f>
         <v>11.420299727520437</v>
       </c>
@@ -1451,7 +1450,7 @@
       <c r="B17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <f>C16-C63</f>
         <v>4.0141898840352948</v>
       </c>
@@ -1487,10 +1486,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="12">
         <f>C19/C20</f>
         <v>18.860250689066806</v>
       </c>
@@ -1500,7 +1499,7 @@
       <c r="B22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <f>C21-C63</f>
         <v>11.454140845581664</v>
       </c>
@@ -1536,10 +1535,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="B26" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="12">
         <f>C24/C25</f>
         <v>20.04585105392233</v>
       </c>
@@ -1549,7 +1548,7 @@
       <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <f>C26-C63</f>
         <v>12.639741210437188</v>
       </c>
@@ -1585,10 +1584,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="B31" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="12">
         <f>C29/C30</f>
         <v>3.8451663317704843</v>
       </c>
@@ -1598,7 +1597,7 @@
       <c r="B32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <f>C31-C63</f>
         <v>-3.5609435117146577</v>
       </c>
@@ -1634,10 +1633,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="B36" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="12">
         <f>C34/C35</f>
         <v>3.6705083798014941</v>
       </c>
@@ -1647,7 +1646,7 @@
       <c r="B37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <f>C36-C63</f>
         <v>-3.7356014636836479</v>
       </c>
@@ -1683,10 +1682,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="13">
+      <c r="B41" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="12">
         <f>C39/C40</f>
         <v>2.7431652254957801</v>
       </c>
@@ -1696,7 +1695,7 @@
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <f>C41-C63</f>
         <v>-4.6629446179893623</v>
       </c>
@@ -1732,10 +1731,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
-      <c r="B46" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="13">
+      <c r="B46" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="12">
         <f>C44/C45</f>
         <v>6.2914840033578958</v>
       </c>
@@ -1745,7 +1744,7 @@
       <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="12">
         <f>C46-C63</f>
         <v>-1.1146258401272462</v>
       </c>
@@ -1781,10 +1780,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
-      <c r="B51" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="13">
+      <c r="B51" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="12">
         <f>C49/C50</f>
         <v>4.1447736989532658</v>
       </c>
@@ -1794,7 +1793,7 @@
       <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="12">
         <f>C51-C63</f>
         <v>-3.2613361445318763</v>
       </c>
@@ -1830,10 +1829,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
-      <c r="B56" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="13">
+      <c r="B56" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="12">
         <f>C54/C55</f>
         <v>4.322051282051282</v>
       </c>
@@ -1843,7 +1842,7 @@
       <c r="B57" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="17">
         <f>C56-C63</f>
         <v>-3.08405856143386</v>
       </c>
@@ -1851,12 +1850,12 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="16"/>
+      <c r="C58" s="15"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="16"/>
+      <c r="C59" s="15"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
@@ -1865,7 +1864,7 @@
       <c r="B60" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <f>AVERAGE(C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
         <v>197405818181.81818</v>
       </c>
@@ -1875,7 +1874,7 @@
       <c r="B61" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="11">
         <f>AVERAGE(C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
         <v>26654454545.454544</v>
       </c>
@@ -1885,7 +1884,7 @@
       <c r="B62" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <f>AVERAGE(C56,C51,C46,C41,C36,C31,C26,C21,C16,C11,C6)</f>
         <v>10.716719905546212</v>
       </c>
@@ -2552,11 +2551,6 @@
         <v>0.92069336905785271</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-    </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>91</v>
@@ -2564,7 +2558,7 @@
       <c r="B75" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="11">
         <f>AVERAGE(C69,C64,C59,C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
         <v>6125571428.5714283</v>
       </c>
@@ -2573,7 +2567,7 @@
       <c r="B76" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="11">
         <f>AVERAGE(C70,C65,C60,C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
         <v>2080714285.7142856</v>
       </c>
@@ -2582,7 +2576,7 @@
       <c r="B77" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="11">
         <f>AVERAGE(C71,C66,C61,C56,C51,C46,C41,C36,C31,C26,C21,C16,C11,C6)</f>
         <v>40.790226224343144</v>
       </c>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD7AA2-8A97-4EDB-8849-DC1891F91A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF119B-CF00-49ED-8174-1E2BBCA98F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF119B-CF00-49ED-8174-1E2BBCA98F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1B2FB5-B437-4AB2-BAB9-AD716069C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1B2FB5-B437-4AB2-BAB9-AD716069C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241EF532-BB37-4C4B-A34F-511272CF553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241EF532-BB37-4C4B-A34F-511272CF553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648CF3EA-9AA5-4BA0-B1A8-AB7151CC79A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomly Selected" sheetId="3" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>DLTR</t>
   </si>
   <si>
-    <t>Criteria Based Selection (Large Cap)</t>
-  </si>
-  <si>
     <t>Energy:</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>PROLOGIS INC</t>
   </si>
   <si>
-    <t>Criteria Based Selection (Small Cap)</t>
-  </si>
-  <si>
     <t>SUN</t>
   </si>
   <si>
@@ -326,6 +320,12 @@
   </si>
   <si>
     <t>Distance from Average</t>
+  </si>
+  <si>
+    <t>Criteria Selected (Large Cap)</t>
+  </si>
+  <si>
+    <t>Criteria Selected (Small Cap)</t>
   </si>
 </sst>
 </file>
@@ -705,13 +705,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A0BDF-9C56-423A-A623-2C6B0F7D9FCE}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C63" sqref="A3:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="4" bestFit="1" customWidth="1"/>
@@ -756,7 +756,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7">
         <f>C4/C5</f>
@@ -765,7 +765,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="7">
         <f>C6-C63</f>
@@ -801,7 +801,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7">
         <f>C9/C10</f>
@@ -810,7 +810,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="7">
         <f>C11-C63</f>
@@ -846,7 +846,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="7">
         <f>C14/C15</f>
@@ -855,7 +855,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="7">
         <f>C16-C63</f>
@@ -891,7 +891,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="7">
         <f>C19/C20</f>
@@ -900,7 +900,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="7">
         <f>C21-C63</f>
@@ -936,7 +936,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" s="7">
         <f>C24/C25</f>
@@ -945,7 +945,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" s="7">
         <f>C26-C63</f>
@@ -981,7 +981,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="7">
         <f>C29/C30</f>
@@ -990,7 +990,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="7">
         <f>C31-C63</f>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="7">
         <f>C34/C35</f>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" s="7">
         <f>C36-C63</f>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="7">
         <f>C39/C40</f>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="7">
         <f>C41-C63</f>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="7">
         <f>C44/C45</f>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="7">
         <f>C46-C63</f>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="7">
         <f>C49/C50</f>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" s="7">
         <f>C51-C63</f>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="7">
         <f>C54/C55</f>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57" s="19">
         <f>C56-C63</f>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C60" s="11">
         <f>AVERAGE(C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
@@ -1246,7 +1246,7 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" s="11">
         <f t="shared" ref="C61:C62" si="0">AVERAGE(C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
@@ -1256,7 +1256,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" s="16">
         <f t="shared" si="0"/>
@@ -1266,7 +1266,7 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C63" s="10">
         <f>C60/C61</f>
@@ -1282,13 +1282,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
@@ -1298,7 +1296,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1310,13 +1308,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1340,7 +1338,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="12">
         <f>C4/C5</f>
@@ -1350,7 +1348,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="12">
         <f>C6-C63</f>
@@ -1359,13 +1357,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,7 +1387,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="12">
         <f>C9/C10</f>
@@ -1399,7 +1397,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="12">
         <f>C11-C63</f>
@@ -1408,13 +1406,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,7 +1436,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="12">
         <f>C14/C15</f>
@@ -1448,7 +1446,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="12">
         <f>C16-C63</f>
@@ -1457,13 +1455,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1487,7 +1485,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="12">
         <f>C19/C20</f>
@@ -1497,7 +1495,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="12">
         <f>C21-C63</f>
@@ -1506,13 +1504,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,7 +1534,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" s="12">
         <f>C24/C25</f>
@@ -1546,7 +1544,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" s="12">
         <f>C26-C63</f>
@@ -1555,13 +1553,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1585,7 +1583,7 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="12">
         <f>C29/C30</f>
@@ -1595,7 +1593,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="12">
         <f>C31-C63</f>
@@ -1604,13 +1602,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1634,7 +1632,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="12">
         <f>C34/C35</f>
@@ -1644,7 +1642,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" s="12">
         <f>C36-C63</f>
@@ -1653,13 +1651,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,7 +1681,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="12">
         <f>C39/C40</f>
@@ -1693,7 +1691,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="12">
         <f>C41-C63</f>
@@ -1702,13 +1700,13 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1732,7 +1730,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="12">
         <f>C44/C45</f>
@@ -1742,7 +1740,7 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="12">
         <f>C46-C63</f>
@@ -1751,13 +1749,13 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1781,7 +1779,7 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="12">
         <f>C49/C50</f>
@@ -1791,7 +1789,7 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" s="12">
         <f>C51-C63</f>
@@ -1800,13 +1798,13 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,7 +1828,7 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="12">
         <f>C54/C55</f>
@@ -1840,7 +1838,7 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57" s="17">
         <f>C56-C63</f>
@@ -1859,10 +1857,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C60" s="11">
         <f>AVERAGE(C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
@@ -1872,7 +1870,7 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" s="11">
         <f>AVERAGE(C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
@@ -1882,7 +1880,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" s="16">
         <f>AVERAGE(C56,C51,C46,C41,C36,C31,C26,C21,C16,C11,C6)</f>
@@ -1892,7 +1890,7 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C63" s="10">
         <f>C60/C61</f>
@@ -1908,15 +1906,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="9"/>
@@ -1924,7 +1922,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1932,13 +1930,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1959,7 +1957,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="6">
         <f>C4/C5</f>
@@ -1968,7 +1966,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="6">
         <f>C6-C78</f>
@@ -1977,13 +1975,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,7 +2002,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="6">
         <f>C9/C10</f>
@@ -2013,7 +2011,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="6">
         <f>C11-C78</f>
@@ -2022,13 +2020,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2049,7 +2047,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="6">
         <f>C14/C15</f>
@@ -2058,7 +2056,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="6">
         <f>C16-C78</f>
@@ -2067,13 +2065,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,7 +2092,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="7">
         <f>C19/C20</f>
@@ -2103,7 +2101,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="7">
         <f>C21-C78</f>
@@ -2112,13 +2110,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2139,7 +2137,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" s="6">
         <f>C24/C25</f>
@@ -2148,7 +2146,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" s="6">
         <f>C26-C78</f>
@@ -2157,13 +2155,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,7 +2182,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="6">
         <f>C29/C30</f>
@@ -2193,7 +2191,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="6">
         <f>C31-C78</f>
@@ -2202,13 +2200,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2229,7 +2227,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="6">
         <f>C34/C35</f>
@@ -2238,7 +2236,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" s="6">
         <f>C36-C78</f>
@@ -2247,13 +2245,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2274,7 +2272,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="6">
         <f>C39/C40</f>
@@ -2283,7 +2281,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="6">
         <f>C41-C78</f>
@@ -2292,10 +2290,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,7 +2314,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="6">
         <f>C44/C45</f>
@@ -2325,7 +2323,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="6">
         <f>C46-C78</f>
@@ -2334,13 +2332,13 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2361,7 +2359,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="6">
         <f>C49/C50</f>
@@ -2370,7 +2368,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" s="6">
         <f>C51-C78</f>
@@ -2379,13 +2377,13 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2406,7 +2404,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="6">
         <f>C54/C55</f>
@@ -2415,7 +2413,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57" s="6">
         <f>C56-C78</f>
@@ -2424,13 +2422,13 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2451,7 +2449,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" s="6">
         <f>C59/C60</f>
@@ -2460,7 +2458,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C62" s="6">
         <f>C61-C78</f>
@@ -2469,10 +2467,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2493,7 +2491,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C66" s="6">
         <f>C64/C65</f>
@@ -2502,7 +2500,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C67" s="6">
         <f>C66-C78</f>
@@ -2511,10 +2509,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2535,7 +2533,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="10">
         <f>C69/C70</f>
@@ -2544,7 +2542,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="10">
         <f>C71-C78</f>
@@ -2553,10 +2551,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C75" s="11">
         <f>AVERAGE(C69,C64,C59,C54,C49,C44,C39,C34,C29,C24,C19,C14,C9,C4)</f>
@@ -2565,7 +2563,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C76" s="11">
         <f>AVERAGE(C70,C65,C60,C55,C50,C45,C40,C35,C30,C25,C20,C15,C10,C5)</f>
@@ -2574,7 +2572,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C77" s="11">
         <f>AVERAGE(C71,C66,C61,C56,C51,C46,C41,C36,C31,C26,C21,C16,C11,C6)</f>
@@ -2583,7 +2581,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C78" s="10">
         <f>C75/C76</f>
